--- a/medicine/Enfance/Julia_Keller/Julia_Keller.xlsx
+++ b/medicine/Enfance/Julia_Keller/Julia_Keller.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julia Keller, née à Huntington en Virginie-Occidentale, est une femme de lettres américaine, auteure de nombreux romans policiers et de science-fiction.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Julia Keller est diplômée de l'université Marshall, puis a obtenu un doctorat en littérature anglaise à l'université d'État de l'Ohio. Elle a été boursière Nieman à l'université Harvard et a enseigné à l'université de Princeton, à l'université d'État de l'Ohio et à l'université de Notre-Dame-du-Lac. En 2005, alors qu'elle travaille pour le Chicago Tribune, elle remporte le Pulitzer de l'article de fond (featuring writing en anglais). 
 En 2012, elle publie son premier roman, A Killing in the Hills avec lequel elle est lauréate du prix Barry 2013 du meilleur premier roman. Elle y met en scène Bell Elkins, procureur de district pour le comté de Raythune en Virginie-Occidentale.
@@ -545,8 +559,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Série Bell Elkins
-(en) A Killing in the Hills, 2012
+          <t>Série Bell Elkins</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>(en) A Killing in the Hills, 2012
 (en) Bitter River, 2013
 (en) Summer of the Dead, 2014
 (en) A Haunting of the Bones, 2014, roman court
@@ -558,17 +577,7 @@
 (en) Thus Far, 2016
 (en) Fast Falls the Night, 2017
 (en) Bone on Bone, 2018
-(en) The Cold Way Home, 2019
-Série Dark Intercept
-(en) The Dark Intercept, 2017
-(en) Dark Mind Rising, 2018
-(en) Dark Star Calling, 2019
-Romans indépendants
-(en) Back Home, 2009
-Roman court
-(en) The Tablet of Scaptur, 2017
-Autre ouvrage
-(en) Mr. Gatling's Terrible Marvel, 2008</t>
+(en) The Cold Way Home, 2019</t>
         </is>
       </c>
     </row>
@@ -593,18 +602,203 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Dark Intercept</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>(en) The Dark Intercept, 2017
+(en) Dark Mind Rising, 2018
+(en) Dark Star Calling, 2019</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Julia_Keller</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Keller</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans indépendants</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>(en) Back Home, 2009</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Julia_Keller</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Keller</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Roman court</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>(en) The Tablet of Scaptur, 2017</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Julia_Keller</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Keller</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autre ouvrage</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(en) Mr. Gatling's Terrible Marvel, 2008</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Julia_Keller</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Keller</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Prix et distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Prix
-Prix Pulitzer de l'article de fond 2005[1]
-Prix Barry 2013 du meilleur premier roman pour A Killing in the Hills[2]
-Nominations
-Mary Higgins Clark 2015 pour Summer of the Dead[3]
-Prix Mary Higgins Clark 2019 pour Bone on Bone[3]
-Prix Shamus 2020 pour The Cold Way Home[4]</t>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Prix</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Prix Pulitzer de l'article de fond 2005
+Prix Barry 2013 du meilleur premier roman pour A Killing in the Hills</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Julia_Keller</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Julia_Keller</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Prix et distinctions</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Nominations</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Mary Higgins Clark 2015 pour Summer of the Dead
+Prix Mary Higgins Clark 2019 pour Bone on Bone
+Prix Shamus 2020 pour The Cold Way Home</t>
         </is>
       </c>
     </row>
